--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>生成ssh密钥</t>
   </si>
@@ -223,10 +223,6 @@
   </si>
   <si>
     <t>分支操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并指定分支到当前分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,6 +555,14 @@
   </si>
   <si>
     <t>移除暂存区修改 "--hard" 强制清除工作区修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并指定分支到当前分支（不删除分支）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并指定分支到当前分支（删除分支）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,11 +666,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -965,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -999,15 +1003,15 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -1015,18 +1019,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1039,10 +1043,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1063,10 +1067,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1087,18 +1091,18 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1133,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1176,13 +1180,13 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1203,10 +1207,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1230,7 +1234,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1238,52 +1242,52 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1295,11 +1299,11 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
@@ -1325,7 +1329,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -1333,7 +1337,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -1341,167 +1345,170 @@
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
         <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
         <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
         <v>68</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
         <v>101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
         <v>103</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
         <v>106</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
         <v>109</v>
-      </c>
-      <c r="C73" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" thickBot="1">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
         <v>122</v>
-      </c>
-      <c r="C76" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
